--- a/BudgetTemplate_StartMon_May.xlsx
+++ b/BudgetTemplate_StartMon_May.xlsx
@@ -1600,7 +1600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1747,7 +1747,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
@@ -2244,23 +2243,23 @@
       <c r="O4" s="28"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="163"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="163"/>
-      <c r="K5" s="163"/>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="165"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="164"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -2361,20 +2360,20 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="E10" s="151" t="s">
+      <c r="E10" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="166"/>
+      <c r="F10" s="165"/>
       <c r="L10" s="28"/>
-      <c r="M10" s="167">
+      <c r="M10" s="166">
         <f>SUM(M6:M9)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="168">
+      <c r="N10" s="167">
         <f>+M10*12</f>
         <v>0</v>
       </c>
-      <c r="O10" s="167">
+      <c r="O10" s="166">
         <f>SUM(O7:O9)</f>
         <v>0</v>
       </c>
@@ -2387,23 +2386,23 @@
       <c r="O11" s="28"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
-      <c r="M12" s="172"/>
-      <c r="N12" s="172"/>
-      <c r="O12" s="174"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
+      <c r="M12" s="171"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="173"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
@@ -3073,20 +3072,20 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="E42" s="176" t="s">
+      <c r="E42" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="177"/>
+      <c r="F42" s="176"/>
       <c r="L42" s="28"/>
-      <c r="M42" s="178">
+      <c r="M42" s="177">
         <f>M24+M31+M40</f>
         <v>0</v>
       </c>
-      <c r="N42" s="179">
+      <c r="N42" s="178">
         <f>N24+N31+N40</f>
         <v>0</v>
       </c>
-      <c r="O42" s="178">
+      <c r="O42" s="177">
         <f>O24+O31+O40</f>
         <v>0</v>
       </c>
@@ -3147,8 +3146,8 @@
   <dimension ref="A1:AC90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3212,8 +3211,8 @@
       <c r="A6" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="207"/>
-      <c r="C6" s="208" t="s">
+      <c r="B6" s="206"/>
+      <c r="C6" s="207" t="s">
         <v>98</v>
       </c>
       <c r="G6" s="4"/>
@@ -3324,35 +3323,35 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="148"/>
       <c r="H8" s="97"/>
       <c r="I8" s="97"/>
       <c r="J8" s="97"/>
       <c r="K8" s="97"/>
       <c r="L8" s="97"/>
       <c r="M8" s="97"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="139"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="138"/>
       <c r="P8" s="98"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="139"/>
-      <c r="T8" s="139"/>
-      <c r="U8" s="139"/>
-      <c r="V8" s="139"/>
-      <c r="W8" s="139"/>
-      <c r="X8" s="139"/>
-      <c r="Y8" s="139"/>
-      <c r="Z8" s="139"/>
-      <c r="AA8" s="139"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="138"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
       <c r="AB8" s="98"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -3439,35 +3438,35 @@
       <c r="T10" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="U10" s="91">
+      <c r="U10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="V10" s="91">
+      <c r="V10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="W10" s="91">
+      <c r="W10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="X10" s="91">
+      <c r="X10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="91">
+      <c r="Y10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="Z10" s="91">
+      <c r="Z10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="AA10" s="91">
+      <c r="AA10" s="94">
         <f>N10</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="130">
+      <c r="AB10" s="158">
         <f>N10</f>
         <v>0</v>
       </c>
@@ -3639,35 +3638,35 @@
       <c r="T14" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="U14" s="91">
+      <c r="U14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="V14" s="91">
+      <c r="V14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="W14" s="91">
+      <c r="W14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="X14" s="91">
+      <c r="X14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="91">
+      <c r="Y14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="91">
+      <c r="Z14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="91">
+      <c r="AA14" s="94">
         <f>N14</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="108">
+      <c r="AB14" s="123">
         <f>N14</f>
         <v>0</v>
       </c>
@@ -3712,35 +3711,35 @@
       <c r="T15" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="U15" s="91">
+      <c r="U15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="V15" s="91">
+      <c r="V15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="W15" s="91">
+      <c r="W15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="X15" s="91">
+      <c r="X15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="91">
+      <c r="Y15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="91">
+      <c r="Z15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="91">
+      <c r="AA15" s="94">
         <f>N15</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="108">
+      <c r="AB15" s="123">
         <f>N15</f>
         <v>0</v>
       </c>
@@ -3768,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="117">
-        <f t="shared" ref="R16:AB16" si="3">SUM(S14:S15)</f>
+        <f t="shared" ref="S16:AB16" si="3">SUM(S14:S15)</f>
         <v>0</v>
       </c>
       <c r="T16" s="117">
@@ -3848,16 +3847,16 @@
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="4"/>
-      <c r="Q19" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="212" t="s">
+      <c r="Q19" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U19" s="100"/>
@@ -3888,16 +3887,16 @@
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S20" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" s="212" t="s">
+      <c r="Q20" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U20" s="100"/>
@@ -3936,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="U21" s="118">
-        <f t="shared" ref="R21:AB21" si="4">U19+U20</f>
+        <f t="shared" ref="U21:AB21" si="4">U19+U20</f>
         <v>0</v>
       </c>
       <c r="V21" s="118">
@@ -3982,34 +3981,34 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="134"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="136"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="136"/>
-      <c r="U22" s="136"/>
-      <c r="V22" s="136"/>
-      <c r="W22" s="136"/>
-      <c r="X22" s="136"/>
-      <c r="Y22" s="136"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="137"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="136"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F23" s="151" t="s">
+      <c r="F23" s="150" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="151"/>
+      <c r="G23" s="150"/>
       <c r="H23" s="83"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="138">
+      <c r="N23" s="137">
         <f>N11+N21</f>
         <v>0</v>
       </c>
-      <c r="O23" s="139">
+      <c r="O23" s="138">
         <f>O11+O21</f>
         <v>0</v>
       </c>
@@ -4017,47 +4016,47 @@
         <f>P11+P21</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="138">
+      <c r="Q23" s="137">
         <f>Q11+Q16+Q21</f>
         <v>0</v>
       </c>
-      <c r="R23" s="139">
+      <c r="R23" s="138">
         <f t="shared" ref="R23:AB23" si="5">R11+R16+R21</f>
         <v>0</v>
       </c>
-      <c r="S23" s="139">
+      <c r="S23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T23" s="139">
+      <c r="T23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="139">
+      <c r="U23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V23" s="139">
+      <c r="V23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W23" s="139">
+      <c r="W23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X23" s="139">
+      <c r="X23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="139">
+      <c r="Y23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="139">
+      <c r="Z23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="139">
+      <c r="AA23" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4087,36 +4086,36 @@
       <c r="AB24" s="4"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="152" t="s">
+      <c r="A25" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="153"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="155"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="153"/>
-      <c r="X25" s="153"/>
-      <c r="Y25" s="153"/>
-      <c r="Z25" s="153"/>
-      <c r="AA25" s="153"/>
-      <c r="AB25" s="155"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="152"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="153"/>
+      <c r="R25" s="152"/>
+      <c r="S25" s="152"/>
+      <c r="T25" s="152"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="152"/>
+      <c r="W25" s="152"/>
+      <c r="X25" s="152"/>
+      <c r="Y25" s="152"/>
+      <c r="Z25" s="152"/>
+      <c r="AA25" s="152"/>
+      <c r="AB25" s="154"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
@@ -4178,48 +4177,48 @@
         <f>IF(C5 = "DAILY", O27/365, IF(C5 = "WEEKLY", O27/52, IF(C5 = "BI-WEEKLY", O27/26, IF(C5 = "SEMI-MO", N27/2, IF(C5 = "MONTHLY", N27, IF(C5 = "ANNUAL", O27, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S27" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T27" s="212" t="s">
+      <c r="Q27" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S27" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T27" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U27" s="100">
-        <f t="shared" ref="U27:U37" si="6">N27</f>
+        <f t="shared" ref="U27:U36" si="6">N27</f>
         <v>0</v>
       </c>
       <c r="V27" s="100">
-        <f t="shared" ref="V27:V37" si="7">N27</f>
+        <f t="shared" ref="V27:V36" si="7">N27</f>
         <v>0</v>
       </c>
       <c r="W27" s="100">
-        <f t="shared" ref="W27:W37" si="8">N27</f>
+        <f t="shared" ref="W27:W36" si="8">N27</f>
         <v>0</v>
       </c>
       <c r="X27" s="100">
-        <f t="shared" ref="X27:X37" si="9">N27</f>
+        <f t="shared" ref="X27:X36" si="9">N27</f>
         <v>0</v>
       </c>
       <c r="Y27" s="100">
-        <f t="shared" ref="Y27:Y37" si="10">N27</f>
+        <f t="shared" ref="Y27:Y36" si="10">N27</f>
         <v>0</v>
       </c>
       <c r="Z27" s="100">
-        <f t="shared" ref="Z27:Z37" si="11">N27</f>
+        <f t="shared" ref="Z27:Z36" si="11">N27</f>
         <v>0</v>
       </c>
       <c r="AA27" s="100">
-        <f t="shared" ref="AA27:AA37" si="12">N27</f>
+        <f t="shared" ref="AA27:AA36" si="12">N27</f>
         <v>0</v>
       </c>
       <c r="AB27" s="123">
-        <f t="shared" ref="AB27:AB37" si="13">N27</f>
+        <f t="shared" ref="AB27:AB36" si="13">N27</f>
         <v>0</v>
       </c>
     </row>
@@ -4251,16 +4250,16 @@
         <f>IF(C5 = "DAILY", O28/365, IF(C5 = "WEEKLY", O28/52, IF(C5 = "BI-WEEKLY", O28/26, IF(C5 = "SEMI-MO", N28/2, IF(C5 = "MONTHLY", L28, IF(C5 = "ANNUAL", N28, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S28" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T28" s="212" t="s">
+      <c r="Q28" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S28" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T28" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U28" s="100">
@@ -4324,16 +4323,16 @@
         <f>IF(C5 = "DAILY", O29/365, IF(C5 = "WEEKLY", O29/52, IF(C5 = "BI-WEEKLY", O29/26, IF(C5 = "SEMI-MO", N29/2, IF(C5 = "MONTHLY", N29, IF(C5 = "ANNUAL", O29, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R29" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S29" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T29" s="212" t="s">
+      <c r="Q29" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T29" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U29" s="100">
@@ -4397,16 +4396,16 @@
         <f>IF(C5 = "DAILY", 30/365, IF(C5 = "WEEKLY", O30/52, IF(C5 = "BI-WEEKLY", O30/26, IF(C5 = "SEMI-MO", N30/2, IF(C5 = "MONTHLY", N30, IF(C5 = "ANNUAL", O30, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R30" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S30" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T30" s="212" t="s">
+      <c r="Q30" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S30" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U30" s="100">
@@ -4470,16 +4469,16 @@
         <f>IF(C5 = "DAILY", 31/365, IF(C5 = "WEEKLY", 31/52, IF(C5 = "BI-WEEKLY", O31/26, IF(C5 = "SEMI-MO", N31/2, IF(C5 = "MONTHLY", N31, IF(C5 = "ANNUAL", O31, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R31" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S31" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T31" s="212" t="s">
+      <c r="Q31" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R31" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S31" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T31" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U31" s="100">
@@ -4543,16 +4542,16 @@
         <f>IF(C5 = "DAILY", O32/365, IF(C5 = "WEEKLY", O32/52, IF(C5 = "BI-WEEKLY", O32/26, IF(C5 = "SEMI-MO", N32/2, IF(C5 = "MONTHLY", N32, IF(C5 = "ANNUAL", O32, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R32" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S32" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T32" s="212" t="s">
+      <c r="Q32" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S32" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T32" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U32" s="100">
@@ -4616,16 +4615,16 @@
         <f>IF(C5 = "DAILY", O33/365, IF(C5 = "WEEKLY", O33/52, IF(C5 = "BI-WEEKLY", O33/26, IF(C5 = "SEMI-MO", N33/2, IF(C5 = "MONTHLY", N33, IF(C5 = "ANNUAL", O33, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R33" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S33" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T33" s="212" t="s">
+      <c r="Q33" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R33" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S33" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T33" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U33" s="100">
@@ -4689,16 +4688,16 @@
         <f>IF(C5 = "DAILY", O34/365, IF(C5 = "WEEKLY", O34/52, IF(C5 = "BI-WEEKLY", O34/26, IF(C5 = "SEMI-MO", N34/2, IF(C5 = "MONTHLY", N34, IF(C5 = "ANNUAL", O34, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R34" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S34" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T34" s="212" t="s">
+      <c r="Q34" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R34" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S34" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T34" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U34" s="100">
@@ -4762,16 +4761,16 @@
         <f>IF(C5 = "DAILY", O35/365, IF(C5 = "WEEKLY", O35/52, IF(C5 = "BI-WEEKLY", O35/26, IF(C5 = "SEMI-MO", N35/2, IF(C5 = "MONTHLY", N35, IF(C5 = "ANNUAL", O35, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R35" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S35" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T35" s="212" t="s">
+      <c r="Q35" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S35" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T35" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U35" s="100">
@@ -4835,47 +4834,47 @@
         <f>IF(C5 = "DAILY", O36/365, IF(C5 = "WEEKLY", O36/52, IF(C5 = "BI-WEEKLY", O36/26, IF(C5 = "SEMI-MO", N36/2, IF(C5 = "MONTHLY", N36, IF(C5 = "ANNUAL", O36, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="210" t="s">
-        <v>14</v>
-      </c>
-      <c r="R36" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="S36" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="T36" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="U36" s="140">
+      <c r="Q36" s="209" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="T36" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="U36" s="139">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V36" s="140">
+      <c r="V36" s="139">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W36" s="140">
+      <c r="W36" s="139">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="X36" s="140">
+      <c r="X36" s="139">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="140">
+      <c r="Y36" s="139">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="140">
+      <c r="Z36" s="139">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="140">
+      <c r="AA36" s="139">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="159">
+      <c r="AB36" s="158">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="U37" s="103">
-        <f t="shared" ref="R37:AB37" si="16">SUM(U27:U36)</f>
+        <f t="shared" ref="U37:AB37" si="16">SUM(U27:U36)</f>
         <v>0</v>
       </c>
       <c r="V37" s="103">
@@ -5045,48 +5044,48 @@
         <f>IF(C5 = "DAILY", O40/365, IF(C5 = "WEEKLY", O40/52, IF(C5 = "BI-WEEKLY", O40/26, IF(C5 = "SEMI-MO", N40/2, IF(C5 = "MONTHLY", N40, IF(C5 = "ANNUAL", O40, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R40" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S40" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T40" s="212" t="s">
+      <c r="Q40" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T40" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U40" s="100">
-        <f t="shared" ref="U40:U50" si="19">N40</f>
+        <f t="shared" ref="U40:U49" si="19">N40</f>
         <v>0</v>
       </c>
       <c r="V40" s="100">
-        <f t="shared" ref="V40:V50" si="20">N40</f>
+        <f t="shared" ref="V40:V49" si="20">N40</f>
         <v>0</v>
       </c>
       <c r="W40" s="100">
-        <f t="shared" ref="W40:W50" si="21">N40</f>
+        <f t="shared" ref="W40:W49" si="21">N40</f>
         <v>0</v>
       </c>
       <c r="X40" s="100">
-        <f t="shared" ref="X40:X50" si="22">N40</f>
+        <f t="shared" ref="X40:X49" si="22">N40</f>
         <v>0</v>
       </c>
       <c r="Y40" s="100">
-        <f t="shared" ref="Y40:Y50" si="23">N40</f>
+        <f t="shared" ref="Y40:Y49" si="23">N40</f>
         <v>0</v>
       </c>
       <c r="Z40" s="100">
-        <f t="shared" ref="Z40:Z50" si="24">N40</f>
+        <f t="shared" ref="Z40:Z49" si="24">N40</f>
         <v>0</v>
       </c>
       <c r="AA40" s="100">
-        <f t="shared" ref="AA40:AA50" si="25">N40</f>
+        <f t="shared" ref="AA40:AA49" si="25">N40</f>
         <v>0</v>
       </c>
       <c r="AB40" s="123">
-        <f t="shared" ref="AB40:AB50" si="26">N40</f>
+        <f t="shared" ref="AB40:AB49" si="26">N40</f>
         <v>0</v>
       </c>
     </row>
@@ -5120,16 +5119,16 @@
         <f>IF(C5 = "DAILY", O41/365, IF(C5 = "WEEKLY", O41/52, IF(C5 = "BI-WEEKLY", O41/26, IF(C5 = "SEMI-MO", N41/2, IF(C5 = "MONTHLY", N41, IF(C5 = "ANNUAL", O41, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R41" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S41" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T41" s="212" t="s">
+      <c r="Q41" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S41" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T41" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U41" s="100">
@@ -5195,16 +5194,16 @@
         <f>IF(C5 = "DAILY", O42/365, IF(C5 = "WEEKLY", O42/52, IF(C5 = "BI-WEEKLY", O42/26, IF(C5 = "SEMI-MO", N42/2, IF(C5 = "MONTHLY", N42, IF(C5 = "ANNUAL", O42, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q42" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R42" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S42" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T42" s="212" t="s">
+      <c r="Q42" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R42" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S42" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T42" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U42" s="100">
@@ -5270,16 +5269,16 @@
         <f>IF(C5 = "DAILY", O43/365, IF(C5 = "WEEKLY", O43/52, IF(C5 = "BI-WEEKLY", O43/26, IF(C5 = "SEMI-MO", N43/2, IF(C5 = "MONTHLY", N43, IF(C5 = "ANNUAL", O43, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q43" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R43" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S43" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T43" s="212" t="s">
+      <c r="Q43" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S43" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T43" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U43" s="100">
@@ -5345,16 +5344,16 @@
         <f>IF(C5 = "DAILY", O44/365, IF(C5 = "WEEKLY", O44/52, IF(C5 = "BI-WEEKLY", O44/26, IF(C5 = "SEMI-MO", N44/2, IF(C5 = "MONTHLY", N44, IF(C5 = "ANNUAL", O44, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q44" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R44" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S44" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T44" s="212" t="s">
+      <c r="Q44" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R44" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S44" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T44" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U44" s="100">
@@ -5420,16 +5419,16 @@
         <f>IF(C5 = "DAILY", O45/365, IF(C5 = "WEEKLY", O45/52, IF(C5 = "BI-WEEKLY", O45/26, IF(C5 = "SEMI-MO", N45/2, IF(C5 = "MONTHLY", N45, IF(C5 = "ANNUAL", O45, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R45" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S45" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T45" s="212" t="s">
+      <c r="Q45" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R45" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S45" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T45" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U45" s="100">
@@ -5495,16 +5494,16 @@
         <f>IF(C5 = "DAILY", O46/365, IF(C5 = "WEEKLY", O46/52, IF(C5 = "BI-WEEKLY", O46/26, IF(C5 = "SEMI-MO", N46/2, IF(C5 = "MONTHLY", N46, IF(C5 = "ANNUAL", O46, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q46" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R46" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S46" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T46" s="212" t="s">
+      <c r="Q46" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R46" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S46" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T46" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U46" s="100">
@@ -5570,16 +5569,16 @@
         <f>IF(C5 = "DAILY", O47/365, IF(C5 = "WEEKLY", O47/52, IF(C5 = "BI-WEEKLY", O47/26, IF(C5 = "SEMI-MO", N47/2, IF(C5 = "MONTHLY", N47, IF(C5 = "ANNUAL", O47, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R47" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S47" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T47" s="212" t="s">
+      <c r="Q47" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R47" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S47" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T47" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U47" s="100">
@@ -5645,16 +5644,16 @@
         <f>IF(C5 = "DAILY", O48/365, IF(C5 = "WEEKLY", O48/52, IF(C5 = "BI-WEEKLY", O48/26, IF(C5 = "SEMI-MO", N48/2, IF(C5 = "MONTHLY", N48, IF(C5 = "ANNUAL", O48, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q48" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R48" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S48" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T48" s="212" t="s">
+      <c r="Q48" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R48" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S48" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T48" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U48" s="100">
@@ -5720,47 +5719,47 @@
         <f>IF(C5 = "DAILY", O49/365, IF(C5 = "WEEKLY", O49/52, IF(C5 = "BI-WEEKLY", O49/26, IF(C5 = "SEMI-MO", N49/2, IF(C5 = "MONTHLY", N49, IF(C5 = "ANNUAL", O49, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q49" s="210" t="s">
-        <v>14</v>
-      </c>
-      <c r="R49" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="S49" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="T49" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="U49" s="140">
+      <c r="Q49" s="209" t="s">
+        <v>14</v>
+      </c>
+      <c r="R49" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="S49" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="T49" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="U49" s="139">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="V49" s="140">
+      <c r="V49" s="139">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="W49" s="140">
+      <c r="W49" s="139">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="X49" s="140">
+      <c r="X49" s="139">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="140">
+      <c r="Y49" s="139">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="140">
+      <c r="Z49" s="139">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AA49" s="140">
+      <c r="AA49" s="139">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AB49" s="159">
+      <c r="AB49" s="158">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="U50" s="103">
-        <f t="shared" ref="R50:AB50" si="27">SUM(U40:U49)</f>
+        <f t="shared" ref="U50:AB50" si="27">SUM(U40:U49)</f>
         <v>0</v>
       </c>
       <c r="V50" s="103">
@@ -5930,48 +5929,48 @@
         <f>IF(C5 = "DAILY", O53/365, IF(C5 = "WEEKLY", O53/52, IF(C5 = "BI-WEEKLY", O53/26, IF(C5 = "SEMI-MO", N53/2, IF(C5 = "MONTHLY", N53, IF(C5 = "ANNUAL", O53, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q53" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R53" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S53" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T53" s="212" t="s">
+      <c r="Q53" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R53" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S53" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T53" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U53" s="100">
-        <f t="shared" ref="U53:U58" si="30">N53</f>
+        <f t="shared" ref="U53:U57" si="30">N53</f>
         <v>0</v>
       </c>
       <c r="V53" s="100">
-        <f t="shared" ref="V53:V58" si="31">N53</f>
+        <f t="shared" ref="V53:V57" si="31">N53</f>
         <v>0</v>
       </c>
       <c r="W53" s="100">
-        <f t="shared" ref="W53:W58" si="32">N53</f>
+        <f t="shared" ref="W53:W57" si="32">N53</f>
         <v>0</v>
       </c>
       <c r="X53" s="100">
-        <f t="shared" ref="X53:X58" si="33">N53</f>
+        <f t="shared" ref="X53:X57" si="33">N53</f>
         <v>0</v>
       </c>
       <c r="Y53" s="100">
-        <f t="shared" ref="Y53:Y58" si="34">N53</f>
+        <f t="shared" ref="Y53:Y57" si="34">N53</f>
         <v>0</v>
       </c>
       <c r="Z53" s="100">
-        <f t="shared" ref="Z53:Z58" si="35">N53</f>
+        <f t="shared" ref="Z53:Z57" si="35">N53</f>
         <v>0</v>
       </c>
       <c r="AA53" s="100">
-        <f t="shared" ref="AA53:AA58" si="36">N53</f>
+        <f t="shared" ref="AA53:AA57" si="36">N53</f>
         <v>0</v>
       </c>
       <c r="AB53" s="123">
-        <f t="shared" ref="AB53:AB58" si="37">N53</f>
+        <f t="shared" ref="AB53:AB57" si="37">N53</f>
         <v>0</v>
       </c>
     </row>
@@ -6005,16 +6004,16 @@
         <f>IF(C5 = "DAILY", O54/365, IF(C5 = "WEEKLY", O54/52, IF(C5 = "BI-WEEKLY", O54/26, IF(C5 = "SEMI-MO", N54/2, IF(C5 = "MONTHLY", N54, IF(C5 = "ANNUAL", O54, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q54" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R54" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S54" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T54" s="212" t="s">
+      <c r="Q54" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R54" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S54" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T54" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U54" s="100">
@@ -6080,16 +6079,16 @@
         <f>IF(C5 = "DAILY", O55/365, IF(C5 = "WEEKLY", O55/52, IF(C5 = "BI-WEEKLY", O55/26, IF(C5 = "SEMI-MO", N55/2, IF(C5 = "MONTHLY", N55, IF(C5 = "ANNUAL", O55, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q55" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R55" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S55" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T55" s="212" t="s">
+      <c r="Q55" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R55" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S55" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T55" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U55" s="100">
@@ -6155,16 +6154,16 @@
         <f>IF(C5 = "DAILY", O56/365, IF(C5 = "WEEKLY", O56/52, IF(C5 = "BI-WEEKLY", O56/26, IF(C5 = "SEMI-MO", N56/2, IF(C5 = "MONTHLY", N56, IF(C5 = "ANNUAL", O56, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R56" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S56" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T56" s="212" t="s">
+      <c r="Q56" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R56" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S56" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T56" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U56" s="100">
@@ -6230,47 +6229,47 @@
         <f>IF(C5 = "DAILY", H57, IF(C5 = "WEEKLY", I57, IF(C5 = "BI-WEEKLY", J57, IF(C5 = "SEMI-MO", K57, IF(C5 = "MONTHLY", L57, IF(C5 = "ANNUAL", M57, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="210" t="s">
-        <v>14</v>
-      </c>
-      <c r="R57" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="S57" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="T57" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="U57" s="140">
+      <c r="Q57" s="209" t="s">
+        <v>14</v>
+      </c>
+      <c r="R57" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="S57" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="T57" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="U57" s="139">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="V57" s="140">
+      <c r="V57" s="139">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="W57" s="140">
+      <c r="W57" s="139">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="X57" s="140">
+      <c r="X57" s="139">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="Y57" s="140">
+      <c r="Y57" s="139">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="140">
+      <c r="Z57" s="139">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AA57" s="140">
+      <c r="AA57" s="139">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AB57" s="159">
+      <c r="AB57" s="158">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="103">
-        <f t="shared" ref="R58:AB58" si="38">SUM(U53:U57)</f>
+        <f t="shared" ref="U58:AB58" si="38">SUM(U53:U57)</f>
         <v>0</v>
       </c>
       <c r="V58" s="103">
@@ -6438,48 +6437,48 @@
         <f>IF(C5 = "DAILY", O61/365, IF(C5 = "WEEKLY", O61/52, IF(C5 = "BI-WEEKLY", O61/26, IF(C5 = "SEMI-MO", N61/2, IF(C5 = "MONTHLY", N61, IF(C5 = "ANNUAL", O61, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q61" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R61" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S61" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T61" s="212" t="s">
+      <c r="Q61" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R61" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S61" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T61" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U61" s="100">
-        <f t="shared" ref="U61:U71" si="39">N61</f>
+        <f t="shared" ref="U61:U70" si="39">N61</f>
         <v>0</v>
       </c>
       <c r="V61" s="100">
-        <f t="shared" ref="V61:V71" si="40">N61</f>
+        <f t="shared" ref="V61:V70" si="40">N61</f>
         <v>0</v>
       </c>
       <c r="W61" s="100">
-        <f t="shared" ref="W61:W71" si="41">N61</f>
+        <f t="shared" ref="W61:W70" si="41">N61</f>
         <v>0</v>
       </c>
       <c r="X61" s="100">
-        <f t="shared" ref="X61:X71" si="42">N61</f>
+        <f t="shared" ref="X61:X70" si="42">N61</f>
         <v>0</v>
       </c>
       <c r="Y61" s="100">
-        <f t="shared" ref="Y61:Y71" si="43">N61</f>
+        <f t="shared" ref="Y61:Y70" si="43">N61</f>
         <v>0</v>
       </c>
       <c r="Z61" s="100">
-        <f t="shared" ref="Z61:Z71" si="44">N61</f>
+        <f t="shared" ref="Z61:Z70" si="44">N61</f>
         <v>0</v>
       </c>
       <c r="AA61" s="100">
-        <f t="shared" ref="AA61:AA71" si="45">N61</f>
+        <f t="shared" ref="AA61:AA70" si="45">N61</f>
         <v>0</v>
       </c>
       <c r="AB61" s="123">
-        <f t="shared" ref="AB61:AB71" si="46">N61</f>
+        <f t="shared" ref="AB61:AB70" si="46">N61</f>
         <v>0</v>
       </c>
     </row>
@@ -6511,16 +6510,16 @@
         <f>IF(C5 = "DAILY", O62/365, IF(C5 = "WEEKLY", O62/52, IF(C5 = "BI-WEEKLY", O62/26, IF(C5 = "SEMI-MO", N62/2, IF(C5 = "MONTHLY", N62, IF(C5 = "ANNUAL", O62, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q62" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R62" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S62" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T62" s="212" t="s">
+      <c r="Q62" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R62" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S62" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T62" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U62" s="100">
@@ -6584,16 +6583,16 @@
         <f>IF(C5 = "DAILY", O63/365, IF(C5 = "WEEKLY", O63/52, IF(C5 = "BI-WEEKLY", O63/26, IF(C5 = "SEMI-MO", N63/2, IF(C5 = "MONTHLY", N63, IF(C5 = "ANNUAL", O63, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q63" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R63" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S63" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T63" s="212" t="s">
+      <c r="Q63" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R63" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S63" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T63" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U63" s="100">
@@ -6657,16 +6656,16 @@
         <f>IF(C5 = "DAILY", O64/365, IF(C5 = "WEEKLY", O64/52, IF(C5 = "BI-WEEKLY", O64/26, IF(C5 = "SEMI-MO", N64/2, IF(C5 = "MONTHLY", N64, IF(C5 = "ANNUAL", O64, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q64" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R64" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S64" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T64" s="212" t="s">
+      <c r="Q64" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R64" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S64" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T64" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U64" s="100">
@@ -6730,16 +6729,16 @@
         <f>IF(C5 = "DAILY", O65/365, IF(C5 = "WEEKLY", O65/52, IF(C5 = "BI-WEEKLY", O65/26, IF(C5 = "SEMI-MO", N65/2, IF(C5 = "MONTHLY", N65, IF(C5 = "ANNUAL", O65, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q65" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R65" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S65" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T65" s="212" t="s">
+      <c r="Q65" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R65" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S65" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T65" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U65" s="100">
@@ -6803,16 +6802,16 @@
         <f>IF(C5 = "DAILY", O66/365, IF(C5 = "WEEKLY", O66/52, IF(C5 = "BI-WEEKLY", O66/26, IF(C5 = "SEMI-MO", N66/2, IF(C5 = "MONTHLY", N66, IF(C5 = "ANNUAL", O66, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q66" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R66" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S66" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T66" s="212" t="s">
+      <c r="Q66" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R66" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S66" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T66" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U66" s="100">
@@ -6876,16 +6875,16 @@
         <f>IF(C5 = "DAILY", O67/365, IF(C5 = "WEEKLY", O67/52, IF(C5 = "BI-WEEKLY", O67/26, IF(C5 = "SEMI-MO", N67/2, IF(C5 = "MONTHLY", N67, IF(C5 = "ANNUAL", O67, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q67" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R67" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S67" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T67" s="212" t="s">
+      <c r="Q67" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R67" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S67" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T67" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U67" s="100">
@@ -6949,16 +6948,16 @@
         <f>IF(C5 = "DAILY", O68/365, IF(C5 = "WEEKLY", O68/52, IF(C5 = "BI-WEEKLY", O68/26, IF(C5 = "SEMI-MO", N68/2, IF(C5 = "MONTHLY", N68, IF(C5 = "ANNUAL", O68, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q68" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R68" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S68" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T68" s="212" t="s">
+      <c r="Q68" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R68" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S68" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T68" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U68" s="100">
@@ -7022,16 +7021,16 @@
         <f>IF(C5 = "DAILY", O69/365, IF(C5 = "WEEKLY", O69/52, IF(C5 = "BI-WEEKLY", O69/26, IF(C5 = "SEMI-MO", N69/2, IF(C5 = "MONTHLY", N69, IF(C5 = "ANNUAL", O69, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q69" s="209" t="s">
-        <v>14</v>
-      </c>
-      <c r="R69" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="S69" s="212" t="s">
-        <v>14</v>
-      </c>
-      <c r="T69" s="212" t="s">
+      <c r="Q69" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="R69" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="S69" s="211" t="s">
+        <v>14</v>
+      </c>
+      <c r="T69" s="211" t="s">
         <v>14</v>
       </c>
       <c r="U69" s="100">
@@ -7095,47 +7094,47 @@
         <f>IF(C5 = "DAILY", O70/365, IF(C5 = "WEEKLY", O70/52, IF(C5 = "BI-WEEKLY", O70/26, IF(C5 = "SEMI-MO", N70/2, IF(C5 = "MONTHLY", N70, IF(C5 = "ANNUAL", O70, 0))))))</f>
         <v>0</v>
       </c>
-      <c r="Q70" s="210" t="s">
-        <v>14</v>
-      </c>
-      <c r="R70" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="S70" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="T70" s="213" t="s">
-        <v>14</v>
-      </c>
-      <c r="U70" s="140">
+      <c r="Q70" s="209" t="s">
+        <v>14</v>
+      </c>
+      <c r="R70" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="S70" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="T70" s="212" t="s">
+        <v>14</v>
+      </c>
+      <c r="U70" s="139">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="V70" s="140">
+      <c r="V70" s="139">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="W70" s="140">
+      <c r="W70" s="139">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="X70" s="140">
+      <c r="X70" s="139">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="Y70" s="140">
+      <c r="Y70" s="139">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="Z70" s="140">
+      <c r="Z70" s="139">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="AA70" s="140">
+      <c r="AA70" s="139">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="AB70" s="159">
+      <c r="AB70" s="158">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
@@ -7147,7 +7146,7 @@
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="146" t="s">
+      <c r="G71" s="145" t="s">
         <v>30</v>
       </c>
       <c r="H71" s="20"/>
@@ -7181,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="U71" s="103">
-        <f t="shared" ref="R71:AB71" si="49">SUM(U61:U70)</f>
+        <f t="shared" ref="U71:AB71" si="49">SUM(U61:U70)</f>
         <v>0</v>
       </c>
       <c r="V71" s="103">
@@ -7227,118 +7226,118 @@
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
-      <c r="N72" s="132"/>
-      <c r="O72" s="133"/>
-      <c r="P72" s="134"/>
-      <c r="Q72" s="132"/>
-      <c r="R72" s="133"/>
-      <c r="S72" s="133"/>
-      <c r="T72" s="133"/>
-      <c r="U72" s="133"/>
-      <c r="V72" s="133"/>
-      <c r="W72" s="133"/>
-      <c r="X72" s="133"/>
-      <c r="Y72" s="133"/>
-      <c r="Z72" s="133"/>
-      <c r="AA72" s="133"/>
-      <c r="AB72" s="134"/>
+      <c r="N72" s="131"/>
+      <c r="O72" s="132"/>
+      <c r="P72" s="133"/>
+      <c r="Q72" s="131"/>
+      <c r="R72" s="132"/>
+      <c r="S72" s="132"/>
+      <c r="T72" s="132"/>
+      <c r="U72" s="132"/>
+      <c r="V72" s="132"/>
+      <c r="W72" s="132"/>
+      <c r="X72" s="132"/>
+      <c r="Y72" s="132"/>
+      <c r="Z72" s="132"/>
+      <c r="AA72" s="132"/>
+      <c r="AB72" s="133"/>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="F73" s="156" t="s">
+      <c r="F73" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="G73" s="157"/>
-      <c r="N73" s="141">
+      <c r="G73" s="156"/>
+      <c r="N73" s="140">
         <f t="shared" ref="N73:AB73" si="50">N37+N50+N58+N71</f>
         <v>0</v>
       </c>
-      <c r="O73" s="145">
+      <c r="O73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="P73" s="143">
+      <c r="P73" s="142">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="Q73" s="145">
+      <c r="Q73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="R73" s="145">
+      <c r="R73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="S73" s="145">
+      <c r="S73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="T73" s="145">
+      <c r="T73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="U73" s="145">
+      <c r="U73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="V73" s="145">
+      <c r="V73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="W73" s="145">
+      <c r="W73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="X73" s="145">
+      <c r="X73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="Y73" s="145">
+      <c r="Y73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="Z73" s="145">
+      <c r="Z73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AA73" s="145">
+      <c r="AA73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="AB73" s="145">
+      <c r="AB73" s="144">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AC73" s="20"/>
     </row>
     <row r="74" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="133"/>
-      <c r="B74" s="133"/>
-      <c r="C74" s="133"/>
-      <c r="D74" s="133"/>
-      <c r="E74" s="133"/>
-      <c r="F74" s="133"/>
-      <c r="G74" s="131"/>
-      <c r="H74" s="133"/>
-      <c r="I74" s="133"/>
-      <c r="J74" s="133"/>
-      <c r="K74" s="133"/>
-      <c r="L74" s="133"/>
-      <c r="M74" s="134"/>
-      <c r="N74" s="132"/>
-      <c r="O74" s="133"/>
-      <c r="P74" s="134"/>
-      <c r="Q74" s="133"/>
-      <c r="R74" s="133"/>
-      <c r="S74" s="133"/>
-      <c r="T74" s="133"/>
-      <c r="U74" s="133"/>
-      <c r="V74" s="133"/>
-      <c r="W74" s="133"/>
-      <c r="X74" s="133"/>
-      <c r="Y74" s="133"/>
-      <c r="Z74" s="133"/>
-      <c r="AA74" s="133"/>
-      <c r="AB74" s="134"/>
+      <c r="A74" s="132"/>
+      <c r="B74" s="132"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="132"/>
+      <c r="E74" s="132"/>
+      <c r="F74" s="132"/>
+      <c r="G74" s="130"/>
+      <c r="H74" s="132"/>
+      <c r="I74" s="132"/>
+      <c r="J74" s="132"/>
+      <c r="K74" s="132"/>
+      <c r="L74" s="132"/>
+      <c r="M74" s="133"/>
+      <c r="N74" s="131"/>
+      <c r="O74" s="132"/>
+      <c r="P74" s="133"/>
+      <c r="Q74" s="132"/>
+      <c r="R74" s="132"/>
+      <c r="S74" s="132"/>
+      <c r="T74" s="132"/>
+      <c r="U74" s="132"/>
+      <c r="V74" s="132"/>
+      <c r="W74" s="132"/>
+      <c r="X74" s="132"/>
+      <c r="Y74" s="132"/>
+      <c r="Z74" s="132"/>
+      <c r="AA74" s="132"/>
+      <c r="AB74" s="133"/>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E75" s="116" t="s">
@@ -7346,86 +7345,86 @@
       </c>
       <c r="F75" s="116"/>
       <c r="G75" s="116"/>
-      <c r="H75" s="182"/>
+      <c r="H75" s="181"/>
       <c r="I75" s="91"/>
       <c r="J75" s="91"/>
       <c r="K75" s="91"/>
       <c r="L75" s="91"/>
-      <c r="M75" s="183"/>
-      <c r="N75" s="175">
+      <c r="M75" s="182"/>
+      <c r="N75" s="174">
         <f t="shared" ref="N75:AB75" si="51">N23-N73</f>
         <v>0</v>
       </c>
-      <c r="O75" s="175">
+      <c r="O75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="P75" s="194">
+      <c r="P75" s="193">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Q75" s="175">
+      <c r="Q75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="R75" s="175">
+      <c r="R75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S75" s="175">
+      <c r="S75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="T75" s="175">
+      <c r="T75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="U75" s="175">
+      <c r="U75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="V75" s="175">
+      <c r="V75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="W75" s="175">
+      <c r="W75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="X75" s="175">
+      <c r="X75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Y75" s="175">
+      <c r="Y75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="Z75" s="175">
+      <c r="Z75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AA75" s="175">
+      <c r="AA75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="AB75" s="175">
+      <c r="AB75" s="174">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AC75" s="20"/>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="H76" s="181"/>
-      <c r="I76" s="181"/>
-      <c r="J76" s="181"/>
-      <c r="K76" s="181"/>
-      <c r="L76" s="181"/>
-      <c r="M76" s="181"/>
-      <c r="N76" s="181"/>
-      <c r="O76" s="181"/>
-      <c r="P76" s="181"/>
-      <c r="Q76" s="181"/>
-      <c r="R76" s="181"/>
+      <c r="H76" s="180"/>
+      <c r="I76" s="180"/>
+      <c r="J76" s="180"/>
+      <c r="K76" s="180"/>
+      <c r="L76" s="180"/>
+      <c r="M76" s="180"/>
+      <c r="N76" s="180"/>
+      <c r="O76" s="180"/>
+      <c r="P76" s="180"/>
+      <c r="Q76" s="180"/>
+      <c r="R76" s="180"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="87"/>
@@ -7539,7 +7538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7552,7 +7551,7 @@
         <v>82</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="K1" s="180"/>
+      <c r="K1" s="179"/>
       <c r="L1" s="91"/>
       <c r="M1" s="91"/>
       <c r="N1" s="91"/>
@@ -7593,20 +7592,20 @@
         <v>80</v>
       </c>
       <c r="K3" s="91"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="188"/>
+      <c r="L3" s="188"/>
+      <c r="M3" s="187"/>
       <c r="N3" s="91"/>
       <c r="O3" s="91"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
       <c r="R3" s="91"/>
       <c r="S3" s="91"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="188"/>
+      <c r="T3" s="188"/>
+      <c r="U3" s="187"/>
       <c r="V3" s="91"/>
       <c r="W3" s="91"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
+      <c r="X3" s="188"/>
+      <c r="Y3" s="188"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="87" t="s">
@@ -7699,11 +7698,11 @@
       <c r="A8" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="207"/>
-      <c r="C8" s="208" t="s">
+      <c r="B8" s="206"/>
+      <c r="C8" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="H8" s="191" t="s">
+      <c r="H8" s="190" t="s">
         <v>52</v>
       </c>
       <c r="I8" s="121"/>
@@ -7724,51 +7723,51 @@
       <c r="Y8" s="91"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H9" s="185" t="str">
+      <c r="H9" s="184" t="str">
         <f>IF(C6, CONCATENATE("JAN ", C6), "JAN {?}")</f>
         <v>JAN 2020</v>
       </c>
-      <c r="I9" s="186" t="str">
+      <c r="I9" s="185" t="str">
         <f>IF(C6, CONCATENATE("FEB ",C6), "FEB {?}")</f>
         <v>FEB 2020</v>
       </c>
-      <c r="J9" s="186" t="str">
+      <c r="J9" s="185" t="str">
         <f>IF(C6, CONCATENATE("MAR ",C6), "MAR {?}")</f>
         <v>MAR 2020</v>
       </c>
-      <c r="K9" s="186" t="str">
+      <c r="K9" s="185" t="str">
         <f>IF(C6, CONCATENATE("APR ", C6), "APR {?}")</f>
         <v>APR 2020</v>
       </c>
-      <c r="L9" s="186" t="str">
+      <c r="L9" s="185" t="str">
         <f>IF(C6, CONCATENATE("MAY ",C6), "MAY {?}")</f>
         <v>MAY 2020</v>
       </c>
-      <c r="M9" s="186" t="str">
+      <c r="M9" s="185" t="str">
         <f>IF(C6, CONCATENATE("JUN ",C6), "JUN {?}")</f>
         <v>JUN 2020</v>
       </c>
-      <c r="N9" s="186" t="str">
+      <c r="N9" s="185" t="str">
         <f>IF(C6, CONCATENATE("JUL ",C6), "JUL {?}")</f>
         <v>JUL 2020</v>
       </c>
-      <c r="O9" s="186" t="str">
+      <c r="O9" s="185" t="str">
         <f>IF(C6, CONCATENATE("AUG ",C6), "AUG {?}")</f>
         <v>AUG 2020</v>
       </c>
-      <c r="P9" s="186" t="str">
+      <c r="P9" s="185" t="str">
         <f>IF(C6, CONCATENATE("SEP ",C6), "SEP {?}")</f>
         <v>SEP 2020</v>
       </c>
-      <c r="Q9" s="186" t="str">
+      <c r="Q9" s="185" t="str">
         <f>IF(C6, CONCATENATE("OCT ",C6), "OCT {?}")</f>
         <v>OCT 2020</v>
       </c>
-      <c r="R9" s="186" t="str">
+      <c r="R9" s="185" t="str">
         <f>IF(C6, CONCATENATE("NOV ",C6), "NOV {?}")</f>
         <v>NOV 2020</v>
       </c>
-      <c r="S9" s="187" t="str">
+      <c r="S9" s="186" t="str">
         <f>IF(C6, CONCATENATE("DEC ",C6), "DEC {?}")</f>
         <v>DEC 2020</v>
       </c>
@@ -7779,27 +7778,27 @@
       <c r="Y9" s="91"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="196" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="148"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="149"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="147"/>
+      <c r="Q10" s="147"/>
+      <c r="R10" s="147"/>
+      <c r="S10" s="148"/>
       <c r="U10" s="91"/>
       <c r="V10" s="91"/>
       <c r="W10" s="91"/>
@@ -7828,7 +7827,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="196" t="s">
+      <c r="C12" s="195" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="6"/>
@@ -7905,8 +7904,8 @@
         <v>0</v>
       </c>
       <c r="U13" s="91"/>
-      <c r="V13" s="180"/>
-      <c r="W13" s="180"/>
+      <c r="V13" s="179"/>
+      <c r="W13" s="179"/>
       <c r="X13" s="91"/>
       <c r="Y13" s="91"/>
     </row>
@@ -8555,7 +8554,7 @@
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
-      <c r="C26" s="196" t="s">
+      <c r="C26" s="195" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="6"/>
@@ -8942,25 +8941,25 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="133"/>
-      <c r="J33" s="133"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="133"/>
-      <c r="R33" s="133"/>
-      <c r="S33" s="134"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="132"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="133"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F34" s="161" t="s">
+      <c r="F34" s="160" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="161"/>
-      <c r="H34" s="138">
+      <c r="G34" s="160"/>
+      <c r="H34" s="137">
         <f>H23+H32</f>
         <v>0</v>
       </c>
@@ -9004,7 +9003,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S34" s="198">
+      <c r="S34" s="197">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9014,27 +9013,27 @@
       <c r="S35" s="4"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="152" t="s">
+      <c r="A36" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="153"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="154"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="153"/>
-      <c r="M36" s="153"/>
-      <c r="N36" s="153"/>
-      <c r="O36" s="153"/>
-      <c r="P36" s="153"/>
-      <c r="Q36" s="153"/>
-      <c r="R36" s="153"/>
-      <c r="S36" s="155"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
+      <c r="M36" s="152"/>
+      <c r="N36" s="152"/>
+      <c r="O36" s="152"/>
+      <c r="P36" s="152"/>
+      <c r="Q36" s="152"/>
+      <c r="R36" s="152"/>
+      <c r="S36" s="154"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="83"/>
@@ -9052,7 +9051,7 @@
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="196" t="s">
+      <c r="C38" s="195" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="6"/>
@@ -9075,40 +9074,40 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K39" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="199">
-        <v>0</v>
-      </c>
-      <c r="M39" s="199">
-        <v>0</v>
-      </c>
-      <c r="N39" s="199">
-        <v>0</v>
-      </c>
-      <c r="O39" s="199">
-        <v>0</v>
-      </c>
-      <c r="P39" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="199">
-        <v>0</v>
-      </c>
-      <c r="R39" s="199">
-        <v>0</v>
-      </c>
-      <c r="S39" s="200">
+      <c r="H39" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="198">
+        <v>0</v>
+      </c>
+      <c r="M39" s="198">
+        <v>0</v>
+      </c>
+      <c r="N39" s="198">
+        <v>0</v>
+      </c>
+      <c r="O39" s="198">
+        <v>0</v>
+      </c>
+      <c r="P39" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="198">
+        <v>0</v>
+      </c>
+      <c r="R39" s="198">
+        <v>0</v>
+      </c>
+      <c r="S39" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9125,40 +9124,40 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K40" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="199">
-        <v>0</v>
-      </c>
-      <c r="M40" s="199">
-        <v>0</v>
-      </c>
-      <c r="N40" s="199">
-        <v>0</v>
-      </c>
-      <c r="O40" s="199">
-        <v>0</v>
-      </c>
-      <c r="P40" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="199">
-        <v>0</v>
-      </c>
-      <c r="R40" s="199">
-        <v>0</v>
-      </c>
-      <c r="S40" s="200">
+      <c r="H40" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="198">
+        <v>0</v>
+      </c>
+      <c r="M40" s="198">
+        <v>0</v>
+      </c>
+      <c r="N40" s="198">
+        <v>0</v>
+      </c>
+      <c r="O40" s="198">
+        <v>0</v>
+      </c>
+      <c r="P40" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="198">
+        <v>0</v>
+      </c>
+      <c r="R40" s="198">
+        <v>0</v>
+      </c>
+      <c r="S40" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9175,40 +9174,40 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K41" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" s="199">
-        <v>0</v>
-      </c>
-      <c r="M41" s="199">
-        <v>0</v>
-      </c>
-      <c r="N41" s="199">
-        <v>0</v>
-      </c>
-      <c r="O41" s="199">
-        <v>0</v>
-      </c>
-      <c r="P41" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="199">
-        <v>0</v>
-      </c>
-      <c r="R41" s="199">
-        <v>0</v>
-      </c>
-      <c r="S41" s="200">
+      <c r="H41" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="198">
+        <v>0</v>
+      </c>
+      <c r="M41" s="198">
+        <v>0</v>
+      </c>
+      <c r="N41" s="198">
+        <v>0</v>
+      </c>
+      <c r="O41" s="198">
+        <v>0</v>
+      </c>
+      <c r="P41" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="198">
+        <v>0</v>
+      </c>
+      <c r="R41" s="198">
+        <v>0</v>
+      </c>
+      <c r="S41" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9225,40 +9224,40 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K42" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="199">
-        <v>0</v>
-      </c>
-      <c r="M42" s="199">
-        <v>0</v>
-      </c>
-      <c r="N42" s="199">
-        <v>0</v>
-      </c>
-      <c r="O42" s="199">
-        <v>0</v>
-      </c>
-      <c r="P42" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="199">
-        <v>0</v>
-      </c>
-      <c r="R42" s="199">
-        <v>0</v>
-      </c>
-      <c r="S42" s="200">
+      <c r="H42" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="198">
+        <v>0</v>
+      </c>
+      <c r="M42" s="198">
+        <v>0</v>
+      </c>
+      <c r="N42" s="198">
+        <v>0</v>
+      </c>
+      <c r="O42" s="198">
+        <v>0</v>
+      </c>
+      <c r="P42" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="198">
+        <v>0</v>
+      </c>
+      <c r="R42" s="198">
+        <v>0</v>
+      </c>
+      <c r="S42" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9275,40 +9274,40 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K43" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" s="199">
-        <v>0</v>
-      </c>
-      <c r="M43" s="199">
-        <v>0</v>
-      </c>
-      <c r="N43" s="199">
-        <v>0</v>
-      </c>
-      <c r="O43" s="199">
-        <v>0</v>
-      </c>
-      <c r="P43" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="199">
-        <v>0</v>
-      </c>
-      <c r="R43" s="199">
-        <v>0</v>
-      </c>
-      <c r="S43" s="200">
+      <c r="H43" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="198">
+        <v>0</v>
+      </c>
+      <c r="M43" s="198">
+        <v>0</v>
+      </c>
+      <c r="N43" s="198">
+        <v>0</v>
+      </c>
+      <c r="O43" s="198">
+        <v>0</v>
+      </c>
+      <c r="P43" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="198">
+        <v>0</v>
+      </c>
+      <c r="R43" s="198">
+        <v>0</v>
+      </c>
+      <c r="S43" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9325,40 +9324,40 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K44" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L44" s="199">
-        <v>0</v>
-      </c>
-      <c r="M44" s="199">
-        <v>0</v>
-      </c>
-      <c r="N44" s="199">
-        <v>0</v>
-      </c>
-      <c r="O44" s="199">
-        <v>0</v>
-      </c>
-      <c r="P44" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="199">
-        <v>0</v>
-      </c>
-      <c r="R44" s="199">
-        <v>0</v>
-      </c>
-      <c r="S44" s="200">
+      <c r="H44" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="198">
+        <v>0</v>
+      </c>
+      <c r="M44" s="198">
+        <v>0</v>
+      </c>
+      <c r="N44" s="198">
+        <v>0</v>
+      </c>
+      <c r="O44" s="198">
+        <v>0</v>
+      </c>
+      <c r="P44" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="198">
+        <v>0</v>
+      </c>
+      <c r="R44" s="198">
+        <v>0</v>
+      </c>
+      <c r="S44" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9375,40 +9374,40 @@
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L45" s="199">
-        <v>0</v>
-      </c>
-      <c r="M45" s="199">
-        <v>0</v>
-      </c>
-      <c r="N45" s="199">
-        <v>0</v>
-      </c>
-      <c r="O45" s="199">
-        <v>0</v>
-      </c>
-      <c r="P45" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="199">
-        <v>0</v>
-      </c>
-      <c r="R45" s="199">
-        <v>0</v>
-      </c>
-      <c r="S45" s="200">
+      <c r="H45" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K45" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="198">
+        <v>0</v>
+      </c>
+      <c r="M45" s="198">
+        <v>0</v>
+      </c>
+      <c r="N45" s="198">
+        <v>0</v>
+      </c>
+      <c r="O45" s="198">
+        <v>0</v>
+      </c>
+      <c r="P45" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="198">
+        <v>0</v>
+      </c>
+      <c r="R45" s="198">
+        <v>0</v>
+      </c>
+      <c r="S45" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9425,40 +9424,40 @@
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K46" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L46" s="199">
-        <v>0</v>
-      </c>
-      <c r="M46" s="199">
-        <v>0</v>
-      </c>
-      <c r="N46" s="199">
-        <v>0</v>
-      </c>
-      <c r="O46" s="199">
-        <v>0</v>
-      </c>
-      <c r="P46" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="199">
-        <v>0</v>
-      </c>
-      <c r="R46" s="199">
-        <v>0</v>
-      </c>
-      <c r="S46" s="200">
+      <c r="H46" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J46" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K46" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="198">
+        <v>0</v>
+      </c>
+      <c r="M46" s="198">
+        <v>0</v>
+      </c>
+      <c r="N46" s="198">
+        <v>0</v>
+      </c>
+      <c r="O46" s="198">
+        <v>0</v>
+      </c>
+      <c r="P46" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="198">
+        <v>0</v>
+      </c>
+      <c r="R46" s="198">
+        <v>0</v>
+      </c>
+      <c r="S46" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9475,40 +9474,40 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K47" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L47" s="199">
-        <v>0</v>
-      </c>
-      <c r="M47" s="199">
-        <v>0</v>
-      </c>
-      <c r="N47" s="199">
-        <v>0</v>
-      </c>
-      <c r="O47" s="199">
-        <v>0</v>
-      </c>
-      <c r="P47" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="199">
-        <v>0</v>
-      </c>
-      <c r="R47" s="199">
-        <v>0</v>
-      </c>
-      <c r="S47" s="200">
+      <c r="H47" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="198">
+        <v>0</v>
+      </c>
+      <c r="M47" s="198">
+        <v>0</v>
+      </c>
+      <c r="N47" s="198">
+        <v>0</v>
+      </c>
+      <c r="O47" s="198">
+        <v>0</v>
+      </c>
+      <c r="P47" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="198">
+        <v>0</v>
+      </c>
+      <c r="R47" s="198">
+        <v>0</v>
+      </c>
+      <c r="S47" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9525,40 +9524,40 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K48" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L48" s="199">
-        <v>0</v>
-      </c>
-      <c r="M48" s="199">
-        <v>0</v>
-      </c>
-      <c r="N48" s="199">
-        <v>0</v>
-      </c>
-      <c r="O48" s="199">
-        <v>0</v>
-      </c>
-      <c r="P48" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="199">
-        <v>0</v>
-      </c>
-      <c r="R48" s="199">
-        <v>0</v>
-      </c>
-      <c r="S48" s="200">
+      <c r="H48" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K48" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="198">
+        <v>0</v>
+      </c>
+      <c r="M48" s="198">
+        <v>0</v>
+      </c>
+      <c r="N48" s="198">
+        <v>0</v>
+      </c>
+      <c r="O48" s="198">
+        <v>0</v>
+      </c>
+      <c r="P48" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="198">
+        <v>0</v>
+      </c>
+      <c r="R48" s="198">
+        <v>0</v>
+      </c>
+      <c r="S48" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9582,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="118">
-        <f t="shared" ref="I49:S49" si="3">SUM(K39:K48)</f>
+        <f t="shared" ref="K49:S49" si="3">SUM(K39:K48)</f>
         <v>0</v>
       </c>
       <c r="L49" s="118">
@@ -9645,7 +9644,7 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
-      <c r="C52" s="196" t="s">
+      <c r="C52" s="195" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="6"/>
@@ -9668,40 +9667,40 @@
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K53" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" s="199">
-        <v>0</v>
-      </c>
-      <c r="M53" s="199">
-        <v>0</v>
-      </c>
-      <c r="N53" s="199">
-        <v>0</v>
-      </c>
-      <c r="O53" s="199">
-        <v>0</v>
-      </c>
-      <c r="P53" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="199">
-        <v>0</v>
-      </c>
-      <c r="R53" s="199">
-        <v>0</v>
-      </c>
-      <c r="S53" s="200">
+      <c r="H53" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K53" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="198">
+        <v>0</v>
+      </c>
+      <c r="M53" s="198">
+        <v>0</v>
+      </c>
+      <c r="N53" s="198">
+        <v>0</v>
+      </c>
+      <c r="O53" s="198">
+        <v>0</v>
+      </c>
+      <c r="P53" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="198">
+        <v>0</v>
+      </c>
+      <c r="R53" s="198">
+        <v>0</v>
+      </c>
+      <c r="S53" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9718,40 +9717,40 @@
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
-      <c r="H54" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K54" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" s="199">
-        <v>0</v>
-      </c>
-      <c r="M54" s="199">
-        <v>0</v>
-      </c>
-      <c r="N54" s="199">
-        <v>0</v>
-      </c>
-      <c r="O54" s="199">
-        <v>0</v>
-      </c>
-      <c r="P54" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="199">
-        <v>0</v>
-      </c>
-      <c r="R54" s="199">
-        <v>0</v>
-      </c>
-      <c r="S54" s="200">
+      <c r="H54" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K54" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="198">
+        <v>0</v>
+      </c>
+      <c r="M54" s="198">
+        <v>0</v>
+      </c>
+      <c r="N54" s="198">
+        <v>0</v>
+      </c>
+      <c r="O54" s="198">
+        <v>0</v>
+      </c>
+      <c r="P54" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="198">
+        <v>0</v>
+      </c>
+      <c r="R54" s="198">
+        <v>0</v>
+      </c>
+      <c r="S54" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9768,40 +9767,40 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
-      <c r="H55" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K55" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" s="199">
-        <v>0</v>
-      </c>
-      <c r="M55" s="199">
-        <v>0</v>
-      </c>
-      <c r="N55" s="199">
-        <v>0</v>
-      </c>
-      <c r="O55" s="199">
-        <v>0</v>
-      </c>
-      <c r="P55" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="199">
-        <v>0</v>
-      </c>
-      <c r="R55" s="199">
-        <v>0</v>
-      </c>
-      <c r="S55" s="200">
+      <c r="H55" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K55" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="198">
+        <v>0</v>
+      </c>
+      <c r="M55" s="198">
+        <v>0</v>
+      </c>
+      <c r="N55" s="198">
+        <v>0</v>
+      </c>
+      <c r="O55" s="198">
+        <v>0</v>
+      </c>
+      <c r="P55" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="198">
+        <v>0</v>
+      </c>
+      <c r="R55" s="198">
+        <v>0</v>
+      </c>
+      <c r="S55" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9818,40 +9817,40 @@
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
-      <c r="H56" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K56" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="199">
-        <v>0</v>
-      </c>
-      <c r="M56" s="199">
-        <v>0</v>
-      </c>
-      <c r="N56" s="199">
-        <v>0</v>
-      </c>
-      <c r="O56" s="199">
-        <v>0</v>
-      </c>
-      <c r="P56" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="199">
-        <v>0</v>
-      </c>
-      <c r="R56" s="199">
-        <v>0</v>
-      </c>
-      <c r="S56" s="200">
+      <c r="H56" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K56" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="198">
+        <v>0</v>
+      </c>
+      <c r="M56" s="198">
+        <v>0</v>
+      </c>
+      <c r="N56" s="198">
+        <v>0</v>
+      </c>
+      <c r="O56" s="198">
+        <v>0</v>
+      </c>
+      <c r="P56" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="198">
+        <v>0</v>
+      </c>
+      <c r="R56" s="198">
+        <v>0</v>
+      </c>
+      <c r="S56" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9868,40 +9867,40 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="211" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="K57" s="214" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="199">
-        <v>0</v>
-      </c>
-      <c r="M57" s="199">
-        <v>0</v>
-      </c>
-      <c r="N57" s="199">
-        <v>0</v>
-      </c>
-      <c r="O57" s="199">
-        <v>0</v>
-      </c>
-      <c r="P57" s="199">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="199">
-        <v>0</v>
-      </c>
-      <c r="R57" s="199">
-        <v>0</v>
-      </c>
-      <c r="S57" s="200">
+      <c r="H57" s="210" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="K57" s="213" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="198">
+        <v>0</v>
+      </c>
+      <c r="M57" s="198">
+        <v>0</v>
+      </c>
+      <c r="N57" s="198">
+        <v>0</v>
+      </c>
+      <c r="O57" s="198">
+        <v>0</v>
+      </c>
+      <c r="P57" s="198">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="198">
+        <v>0</v>
+      </c>
+      <c r="R57" s="198">
+        <v>0</v>
+      </c>
+      <c r="S57" s="199">
         <v>0</v>
       </c>
     </row>
@@ -9925,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="118">
-        <f t="shared" ref="I58:S58" si="4">SUM(K53:K57)</f>
+        <f t="shared" ref="K58:S58" si="4">SUM(K53:K57)</f>
         <v>0</v>
       </c>
       <c r="L58" s="118">
@@ -9969,69 +9968,69 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="132"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="133"/>
-      <c r="M59" s="133"/>
-      <c r="N59" s="133"/>
-      <c r="O59" s="133"/>
-      <c r="P59" s="133"/>
-      <c r="Q59" s="133"/>
-      <c r="R59" s="133"/>
-      <c r="S59" s="134"/>
+      <c r="H59" s="131"/>
+      <c r="I59" s="132"/>
+      <c r="J59" s="132"/>
+      <c r="K59" s="132"/>
+      <c r="L59" s="132"/>
+      <c r="M59" s="132"/>
+      <c r="N59" s="132"/>
+      <c r="O59" s="132"/>
+      <c r="P59" s="132"/>
+      <c r="Q59" s="132"/>
+      <c r="R59" s="132"/>
+      <c r="S59" s="133"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="F60" s="176" t="s">
+      <c r="F60" s="175" t="s">
         <v>88</v>
       </c>
-      <c r="G60" s="176"/>
-      <c r="H60" s="141">
+      <c r="G60" s="175"/>
+      <c r="H60" s="140">
         <f>H49+H58</f>
         <v>0</v>
       </c>
-      <c r="I60" s="142">
+      <c r="I60" s="141">
         <f t="shared" ref="I60:S60" si="5">I49+I58</f>
         <v>0</v>
       </c>
-      <c r="J60" s="142">
+      <c r="J60" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K60" s="142">
+      <c r="K60" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L60" s="142">
+      <c r="L60" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M60" s="142">
+      <c r="M60" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N60" s="142">
+      <c r="N60" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O60" s="142">
+      <c r="O60" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P60" s="142">
+      <c r="P60" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="142">
+      <c r="Q60" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R60" s="142">
+      <c r="R60" s="141">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S60" s="143">
+      <c r="S60" s="142">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -10041,60 +10040,60 @@
       <c r="S61" s="4"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="192" t="s">
+      <c r="A62" s="191" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="193"/>
-      <c r="C62" s="193"/>
-      <c r="D62" s="193"/>
-      <c r="E62" s="193"/>
-      <c r="F62" s="193"/>
-      <c r="G62" s="195"/>
-      <c r="H62" s="204">
+      <c r="B62" s="192"/>
+      <c r="C62" s="192"/>
+      <c r="D62" s="192"/>
+      <c r="E62" s="192"/>
+      <c r="F62" s="192"/>
+      <c r="G62" s="194"/>
+      <c r="H62" s="203">
         <f>H34-H60</f>
         <v>0</v>
       </c>
-      <c r="I62" s="193">
+      <c r="I62" s="192">
         <f t="shared" ref="I62:S62" si="6">I34-I60</f>
         <v>0</v>
       </c>
-      <c r="J62" s="193">
+      <c r="J62" s="192">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K62" s="193">
+      <c r="K62" s="192">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L62" s="193">
+      <c r="L62" s="192">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M62" s="193">
+      <c r="M62" s="192">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N62" s="193">
+      <c r="N62" s="192">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O62" s="193">
+      <c r="O62" s="192">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P62" s="193">
+      <c r="P62" s="192">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="193">
+      <c r="Q62" s="192">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R62" s="193">
+      <c r="R62" s="192">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S62" s="195">
+      <c r="S62" s="194">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -10104,7 +10103,7 @@
       <c r="S63" s="4"/>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="201" t="s">
+      <c r="A64" s="200" t="s">
         <v>94</v>
       </c>
       <c r="B64" s="125"/>
@@ -10113,7 +10112,7 @@
       <c r="E64" s="125"/>
       <c r="F64" s="125"/>
       <c r="G64" s="125"/>
-      <c r="H64" s="202"/>
+      <c r="H64" s="201"/>
       <c r="I64" s="125"/>
       <c r="J64" s="125"/>
       <c r="K64" s="125"/>
@@ -10124,7 +10123,7 @@
       <c r="P64" s="125"/>
       <c r="Q64" s="125"/>
       <c r="R64" s="125"/>
-      <c r="S64" s="203"/>
+      <c r="S64" s="202"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B65" s="61" t="s">
@@ -10140,13 +10139,13 @@
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B66" s="20"/>
-      <c r="C66" s="196" t="s">
+      <c r="C66" s="195" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
-      <c r="G66" s="196" t="s">
+      <c r="G66" s="195" t="s">
         <v>92</v>
       </c>
       <c r="H66" s="20"/>
@@ -10163,55 +10162,55 @@
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
-      <c r="G67" s="159">
+      <c r="G67" s="158">
         <v>0</v>
       </c>
       <c r="H67" s="20">
-        <f>G67</f>
+        <f t="shared" ref="H67:K69" si="7">G67</f>
         <v>0</v>
       </c>
       <c r="I67">
-        <f>H67</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J67">
-        <f>I67</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f>J67</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:S67" si="7">K67+L13-L39</f>
+        <f t="shared" ref="L67:S67" si="8">K67+L13-L39</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -10230,51 +10229,51 @@
         <v>0</v>
       </c>
       <c r="H68" s="20">
-        <f>G68</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I68">
-        <f>H68</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J68">
-        <f>I68</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f>J68</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" ref="J68:S76" si="8">K68+L14-L40</f>
+        <f t="shared" ref="L68:S76" si="9">K68+L14-L40</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S68" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10293,51 +10292,51 @@
         <v>0</v>
       </c>
       <c r="H69" s="20">
-        <f>G69</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I69">
-        <f>H69</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>I69</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f>J69</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S69" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10356,51 +10355,51 @@
         <v>0</v>
       </c>
       <c r="H70" s="20">
-        <f>G70</f>
+        <f t="shared" ref="H70:J71" si="10">G70</f>
         <v>0</v>
       </c>
       <c r="I70">
-        <f>H70</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J70">
-        <f>I70</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" ref="K70:K76" si="9">J70</f>
+        <f t="shared" ref="K70:K76" si="11">J70</f>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S70" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10419,51 +10418,51 @@
         <v>0</v>
       </c>
       <c r="H71" s="20">
-        <f>G71</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I71">
-        <f>H71</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f>I71</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="M71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10482,51 +10481,51 @@
         <v>0</v>
       </c>
       <c r="H72" s="20">
-        <f>G72</f>
+        <f t="shared" ref="H72:I76" si="12">G72</f>
         <v>0</v>
       </c>
       <c r="I72">
-        <f>H72</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J76" si="10">I72</f>
+        <f t="shared" ref="J72:J76" si="13">I72</f>
         <v>0</v>
       </c>
       <c r="K72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L72">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="M72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10545,51 +10544,51 @@
         <v>0</v>
       </c>
       <c r="H73" s="20">
-        <f>G73</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I73">
-        <f>H73</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L73">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="M73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10608,51 +10607,51 @@
         <v>0</v>
       </c>
       <c r="H74" s="20">
-        <f>G74</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I74">
-        <f>H74</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="M74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S74" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10671,51 +10670,51 @@
         <v>0</v>
       </c>
       <c r="H75" s="20">
-        <f>G75</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I75">
-        <f>H75</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L75">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="M75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S75" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10733,112 +10732,112 @@
       <c r="G76" s="85">
         <v>0</v>
       </c>
-      <c r="H76" s="132">
-        <f>G76</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="133">
-        <f>H76</f>
-        <v>0</v>
-      </c>
-      <c r="J76" s="133">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K76" s="133">
+      <c r="H76" s="131">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="132">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="132">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="132">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L76" s="133">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M76" s="133">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N76" s="133">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="133">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="133">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q76" s="133">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R76" s="133">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S76" s="134">
-        <f t="shared" si="8"/>
+      <c r="M76" s="132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="132">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="133">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
-      <c r="D77" s="205" t="s">
+      <c r="D77" s="204" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="205"/>
-      <c r="F77" s="206"/>
-      <c r="G77" s="190">
+      <c r="E77" s="204"/>
+      <c r="F77" s="205"/>
+      <c r="G77" s="189">
         <f>SUM(G67:G76)</f>
         <v>0</v>
       </c>
-      <c r="H77" s="202">
+      <c r="H77" s="201">
         <f>SUM(H67:H76)</f>
         <v>0</v>
       </c>
-      <c r="I77" s="184">
-        <f t="shared" ref="I77:S77" si="11">SUM(I67:I76)</f>
-        <v>0</v>
-      </c>
-      <c r="J77" s="184">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="184">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="184">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M77" s="184">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N77" s="184">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="184">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="184">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q77" s="184">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R77" s="184">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S77" s="203">
-        <f t="shared" si="11"/>
+      <c r="I77" s="183">
+        <f t="shared" ref="I77:S77" si="14">SUM(I67:I76)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="R77" s="183">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="202">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -10866,13 +10865,13 @@
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B80" s="20"/>
-      <c r="C80" s="196" t="s">
+      <c r="C80" s="195" t="s">
         <v>39</v>
       </c>
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
-      <c r="G80" s="196" t="s">
+      <c r="G80" s="195" t="s">
         <v>92</v>
       </c>
       <c r="H80" s="20"/>
@@ -10889,55 +10888,55 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
-      <c r="G81" s="144">
+      <c r="G81" s="143">
         <v>0</v>
       </c>
       <c r="H81" s="20">
-        <f>G81</f>
+        <f t="shared" ref="H81:K85" si="15">G81</f>
         <v>0</v>
       </c>
       <c r="I81" s="6">
-        <f>H81</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J81" s="6">
-        <f>I81</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K81" s="6">
-        <f>J81</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L81" s="6">
-        <f t="shared" ref="J81:S81" si="12">K81+L27-L53</f>
+        <f t="shared" ref="L81:S81" si="16">K81+L27-L53</f>
         <v>0</v>
       </c>
       <c r="M81" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N81" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O81" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P81" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R81" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S81" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -10952,55 +10951,55 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
-      <c r="G82" s="190">
+      <c r="G82" s="189">
         <v>0</v>
       </c>
       <c r="H82" s="20">
-        <f>G82</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I82" s="6">
-        <f>H82</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J82" s="6">
-        <f>I82</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K82" s="6">
-        <f>J82</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L82" s="6">
-        <f t="shared" ref="H82:S85" si="13">K82+L28-L54</f>
+        <f t="shared" ref="L82:S85" si="17">K82+L28-L54</f>
         <v>0</v>
       </c>
       <c r="M82" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N82" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O82" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P82" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q82" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R82" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S82" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11015,55 +11014,55 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
-      <c r="G83" s="190">
+      <c r="G83" s="189">
         <v>0</v>
       </c>
       <c r="H83" s="20">
-        <f>G83</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I83" s="6">
-        <f>H83</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J83" s="6">
-        <f>I83</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K83" s="6">
-        <f>J83</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R83" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S83" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11078,55 +11077,55 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
-      <c r="G84" s="190">
+      <c r="G84" s="189">
         <v>0</v>
       </c>
       <c r="H84" s="20">
-        <f>G84</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I84" s="6">
-        <f>H84</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J84" s="6">
-        <f>I84</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K84" s="6">
-        <f>J84</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L84" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M84" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N84" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O84" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P84" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q84" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R84" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S84" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -11141,116 +11140,116 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
-      <c r="G85" s="144">
-        <v>0</v>
-      </c>
-      <c r="H85" s="132">
-        <f>G85</f>
-        <v>0</v>
-      </c>
-      <c r="I85" s="133">
-        <f>H85</f>
-        <v>0</v>
-      </c>
-      <c r="J85" s="133">
-        <f>I85</f>
-        <v>0</v>
-      </c>
-      <c r="K85" s="133">
-        <f>J85</f>
-        <v>0</v>
-      </c>
-      <c r="L85" s="133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M85" s="133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N85" s="133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O85" s="133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P85" s="133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q85" s="133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R85" s="133">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S85" s="134">
-        <f t="shared" si="13"/>
+      <c r="G85" s="143">
+        <v>0</v>
+      </c>
+      <c r="H85" s="131">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="132">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="132">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="132">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="132">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="132">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="132">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="132">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="132">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="132">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R85" s="132">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="133">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
-      <c r="D86" s="205" t="s">
+      <c r="D86" s="204" t="s">
         <v>93</v>
       </c>
-      <c r="E86" s="205"/>
-      <c r="F86" s="206"/>
-      <c r="G86" s="190">
+      <c r="E86" s="204"/>
+      <c r="F86" s="205"/>
+      <c r="G86" s="189">
         <f>SUM(G81:G85)</f>
         <v>0</v>
       </c>
-      <c r="H86" s="202">
+      <c r="H86" s="201">
         <f>SUM(H81:H85)</f>
         <v>0</v>
       </c>
-      <c r="I86" s="184">
-        <f t="shared" ref="I86:S86" si="14">SUM(I81:I85)</f>
-        <v>0</v>
-      </c>
-      <c r="J86" s="184">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K86" s="184">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L86" s="184">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M86" s="184">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N86" s="184">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O86" s="184">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P86" s="184">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q86" s="184">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R86" s="184">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S86" s="203">
-        <f t="shared" si="14"/>
+      <c r="I86" s="183">
+        <f t="shared" ref="I86:S86" si="18">SUM(I81:I85)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R86" s="183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="202">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
